--- a/CountyHomPov.xlsx
+++ b/CountyHomPov.xlsx
@@ -25,76 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>TOTAL (All Selected Counties)</t>
-  </si>
-  <si>
-    <t>County</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atlantic County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bergen County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burlington County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camden County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cape May County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cumberland County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Essex County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gloucester County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hudson County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hunterdon County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mercer County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middlesex County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monmouth County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Morris County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ocean County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Passaic County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Salem County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Somerset County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sussex County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union County </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Warren County </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <r>
       <t xml:space="preserve">                        </t>
@@ -294,6 +225,69 @@
   </si>
   <si>
     <t>Homeless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atlantic  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bergen  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burlington  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camden  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cape May  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumberland  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Essex  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gloucester  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hudson  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hunterdon  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mercer  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middlesex  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monmouth  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Morris  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocean  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passaic  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salem  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somerset  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sussex  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Warren  </t>
   </si>
 </sst>
 </file>
@@ -313,6 +307,7 @@
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -668,26 +663,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>427</v>
@@ -698,7 +691,7 @@
     </row>
     <row r="3" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>303</v>
@@ -709,7 +702,7 @@
     </row>
     <row r="4" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>1005</v>
@@ -720,7 +713,7 @@
     </row>
     <row r="5" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>743</v>
@@ -731,7 +724,7 @@
     </row>
     <row r="6" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6">
         <v>208</v>
@@ -742,7 +735,7 @@
     </row>
     <row r="7" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7">
         <v>202</v>
@@ -753,7 +746,7 @@
     </row>
     <row r="8" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8">
         <v>2451</v>
@@ -764,7 +757,7 @@
     </row>
     <row r="9" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>206</v>
@@ -775,7 +768,7 @@
     </row>
     <row r="10" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10">
         <v>1168</v>
@@ -786,7 +779,7 @@
     </row>
     <row r="11" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11">
         <v>178</v>
@@ -797,7 +790,7 @@
     </row>
     <row r="12" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B12">
         <v>934</v>
@@ -808,7 +801,7 @@
     </row>
     <row r="13" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B13">
         <v>619</v>
@@ -819,7 +812,7 @@
     </row>
     <row r="14" spans="1:3" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14">
         <v>497</v>
@@ -830,7 +823,7 @@
     </row>
     <row r="15" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B15">
         <v>680</v>
@@ -841,7 +834,7 @@
     </row>
     <row r="16" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B16">
         <v>556</v>
@@ -852,7 +845,7 @@
     </row>
     <row r="17" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>710</v>
@@ -863,7 +856,7 @@
     </row>
     <row r="18" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>88</v>
@@ -874,7 +867,7 @@
     </row>
     <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>454</v>
@@ -885,7 +878,7 @@
     </row>
     <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20">
         <v>106</v>
@@ -896,7 +889,7 @@
     </row>
     <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B21">
         <v>1026</v>
@@ -907,7 +900,7 @@
     </row>
     <row r="22" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>119</v>
@@ -916,10 +909,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -942,7 +933,7 @@
     </row>
     <row r="15" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E15" s="3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
